--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H2">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I2">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J2">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N2">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O2">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P2">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q2">
-        <v>12.38767663569333</v>
+        <v>142.3644020356103</v>
       </c>
       <c r="R2">
-        <v>111.48908972124</v>
+        <v>1281.279618320493</v>
       </c>
       <c r="S2">
-        <v>0.001213949083096591</v>
+        <v>0.01418534685329927</v>
       </c>
       <c r="T2">
-        <v>0.001213949083096591</v>
+        <v>0.01418534685329927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H3">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I3">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J3">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O3">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P3">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q3">
-        <v>6576.726062582884</v>
+        <v>9091.496638761762</v>
       </c>
       <c r="R3">
-        <v>59190.53456324596</v>
+        <v>81823.46974885587</v>
       </c>
       <c r="S3">
-        <v>0.6444962044331803</v>
+        <v>0.9058868045129791</v>
       </c>
       <c r="T3">
-        <v>0.6444962044331805</v>
+        <v>0.9058868045129792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H4">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I4">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J4">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N4">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O4">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P4">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q4">
-        <v>2.576454998938333</v>
+        <v>24.42875483460622</v>
       </c>
       <c r="R4">
-        <v>23.188094990445</v>
+        <v>219.858793511456</v>
       </c>
       <c r="S4">
-        <v>0.0002524835992722668</v>
+        <v>0.002434108215032726</v>
       </c>
       <c r="T4">
-        <v>0.0002524835992722668</v>
+        <v>0.002434108215032726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H5">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I5">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J5">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,90 +747,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N5">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q5">
-        <v>8.77915429842</v>
+        <v>3.963411962142112</v>
       </c>
       <c r="R5">
-        <v>79.01238868578</v>
+        <v>35.670707659279</v>
       </c>
       <c r="S5">
-        <v>0.0008603264861001079</v>
+        <v>0.0003949187620051121</v>
       </c>
       <c r="T5">
-        <v>0.0008603264861001079</v>
+        <v>0.0003949187620051122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>36.464945</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H6">
-        <v>109.394835</v>
+        <v>0.181747</v>
       </c>
       <c r="I6">
-        <v>0.6470580159734581</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J6">
-        <v>0.647058015973458</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06577766666666666</v>
+        <v>2.824231</v>
       </c>
       <c r="N6">
-        <v>0.197333</v>
+        <v>8.472693</v>
       </c>
       <c r="O6">
-        <v>0.000363263209799156</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P6">
-        <v>0.0003632632097991561</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q6">
-        <v>2.398578997228333</v>
+        <v>0.1710985038523333</v>
       </c>
       <c r="R6">
-        <v>21.587210975055</v>
+        <v>1.539886534671</v>
       </c>
       <c r="S6">
-        <v>0.000235052371808792</v>
+        <v>1.704844461481888E-05</v>
       </c>
       <c r="T6">
-        <v>0.000235052371808792</v>
+        <v>1.704844461481888E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H7">
         <v>0.181747</v>
       </c>
       <c r="I7">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J7">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3397146666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N7">
-        <v>1.019144</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O7">
-        <v>0.001876105469878586</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P7">
-        <v>0.001876105469878587</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q7">
-        <v>0.02058070717422222</v>
+        <v>10.92647776009033</v>
       </c>
       <c r="R7">
-        <v>0.185226364568</v>
+        <v>98.33829984081299</v>
       </c>
       <c r="S7">
-        <v>2.016837486025332E-06</v>
+        <v>0.001088726357822035</v>
       </c>
       <c r="T7">
-        <v>2.016837486025332E-06</v>
+        <v>0.001088726357822035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
         <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>180.357493</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N8">
-        <v>541.0724789999999</v>
+        <v>1.453856</v>
       </c>
       <c r="O8">
-        <v>0.9960408317692755</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P8">
-        <v>0.9960408317692757</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q8">
-        <v>10.92647776009033</v>
+        <v>0.02935932960355556</v>
       </c>
       <c r="R8">
-        <v>98.33829984081298</v>
+        <v>0.264233966432</v>
       </c>
       <c r="S8">
-        <v>0.001070756692188596</v>
+        <v>2.925396151367944E-06</v>
       </c>
       <c r="T8">
-        <v>0.001070756692188596</v>
+        <v>2.925396151367944E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
         <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07065566666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N9">
-        <v>0.211967</v>
+        <v>0.235879</v>
       </c>
       <c r="O9">
-        <v>0.000390202413136666</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P9">
-        <v>0.0003902024131366661</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q9">
-        <v>0.004280485149888889</v>
+        <v>0.004763366734777779</v>
       </c>
       <c r="R9">
-        <v>0.038524366349</v>
+        <v>0.042870300613</v>
       </c>
       <c r="S9">
-        <v>4.19472607796672E-07</v>
+        <v>4.7462714243262E-07</v>
       </c>
       <c r="T9">
-        <v>4.194726077966722E-07</v>
+        <v>4.7462714243262E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,117 +1030,117 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06058233333333333</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H10">
-        <v>0.181747</v>
+        <v>2.203085</v>
       </c>
       <c r="I10">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J10">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.240756</v>
+        <v>2.824231</v>
       </c>
       <c r="N10">
-        <v>0.722268</v>
+        <v>8.472693</v>
       </c>
       <c r="O10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q10">
-        <v>0.014585560244</v>
+        <v>2.074006984211666</v>
       </c>
       <c r="R10">
-        <v>0.131270042196</v>
+        <v>18.666062857905</v>
       </c>
       <c r="S10">
-        <v>1.42933400712416E-06</v>
+        <v>0.0002066563552864049</v>
       </c>
       <c r="T10">
-        <v>1.42933400712416E-06</v>
+        <v>0.0002066563552864049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06058233333333333</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H11">
-        <v>0.181747</v>
+        <v>2.203085</v>
       </c>
       <c r="I11">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J11">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06577766666666666</v>
+        <v>180.357493</v>
       </c>
       <c r="N11">
-        <v>0.197333</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O11">
-        <v>0.000363263209799156</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P11">
-        <v>0.0003632632097991561</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q11">
-        <v>0.003984964527888889</v>
+        <v>132.4476291553016</v>
       </c>
       <c r="R11">
-        <v>0.035864680751</v>
+        <v>1192.028662397715</v>
       </c>
       <c r="S11">
-        <v>3.90512618069514E-07</v>
+        <v>0.01319722860912343</v>
       </c>
       <c r="T11">
-        <v>3.905126180695141E-07</v>
+        <v>0.01319722860912343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H12">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I12">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J12">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3397146666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N12">
-        <v>1.019144</v>
+        <v>1.453856</v>
       </c>
       <c r="O12">
-        <v>0.001876105469878586</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P12">
-        <v>0.001876105469878587</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q12">
-        <v>2.284712263194667</v>
+        <v>0.3558853717511111</v>
       </c>
       <c r="R12">
-        <v>20.562410368752</v>
+        <v>3.20296834576</v>
       </c>
       <c r="S12">
-        <v>0.0002238938292151722</v>
+        <v>3.546081299903957E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002238938292151722</v>
+        <v>3.546081299903957E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H13">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I13">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J13">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>180.357493</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N13">
-        <v>541.0724789999999</v>
+        <v>0.235879</v>
       </c>
       <c r="O13">
-        <v>0.9960408317692755</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P13">
-        <v>0.9960408317692757</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q13">
-        <v>1212.973758417298</v>
+        <v>0.05774016519055555</v>
       </c>
       <c r="R13">
-        <v>10916.76382575568</v>
+        <v>0.5196614867149999</v>
       </c>
       <c r="S13">
-        <v>0.1188671956134323</v>
+        <v>5.753294074103937E-06</v>
       </c>
       <c r="T13">
-        <v>0.1188671956134323</v>
+        <v>5.753294074103938E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H14">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I14">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J14">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07065566666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N14">
-        <v>0.211967</v>
+        <v>8.472693</v>
       </c>
       <c r="O14">
-        <v>0.000390202413136666</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P14">
-        <v>0.0003902024131366661</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q14">
-        <v>0.4751866314206667</v>
+        <v>3.500818840925333</v>
       </c>
       <c r="R14">
-        <v>4.276679682786001</v>
+        <v>31.507369568328</v>
       </c>
       <c r="S14">
-        <v>4.656663169998784E-05</v>
+        <v>0.0003488254705461355</v>
       </c>
       <c r="T14">
-        <v>4.656663169998785E-05</v>
+        <v>0.0003488254705461356</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H15">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I15">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J15">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.240756</v>
+        <v>180.357493</v>
       </c>
       <c r="N15">
-        <v>0.722268</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q15">
-        <v>1.619177031816</v>
+        <v>223.5648959297093</v>
       </c>
       <c r="R15">
-        <v>14.572593286344</v>
+        <v>2012.084063367384</v>
       </c>
       <c r="S15">
-        <v>0.0001586736989469437</v>
+        <v>0.0222762540890764</v>
       </c>
       <c r="T15">
-        <v>0.0001586736989469437</v>
+        <v>0.0222762540890764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H16">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I16">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J16">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06577766666666666</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N16">
-        <v>0.197333</v>
+        <v>1.453856</v>
       </c>
       <c r="O16">
-        <v>0.000363263209799156</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P16">
-        <v>0.0003632632097991561</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q16">
-        <v>0.4423801985126667</v>
+        <v>0.6007164990862223</v>
       </c>
       <c r="R16">
-        <v>3.981421786614</v>
+        <v>5.406448491776001</v>
       </c>
       <c r="S16">
-        <v>4.335171575412068E-05</v>
+        <v>5.985605796248282E-05</v>
       </c>
       <c r="T16">
-        <v>4.335171575412069E-05</v>
+        <v>5.985605796248283E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H17">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I17">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J17">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3397146666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N17">
-        <v>1.019144</v>
+        <v>0.235879</v>
       </c>
       <c r="O17">
-        <v>0.001876105469878586</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P17">
-        <v>0.001876105469878587</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q17">
-        <v>0.7190607860613334</v>
+        <v>0.09746247708711113</v>
       </c>
       <c r="R17">
-        <v>6.471547074552</v>
+        <v>0.8771622937840001</v>
       </c>
       <c r="S17">
-        <v>7.046544784796226E-05</v>
+        <v>9.71126927022517E-06</v>
       </c>
       <c r="T17">
-        <v>7.046544784796228E-05</v>
+        <v>9.711269270225172E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H18">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I18">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J18">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>180.357493</v>
+        <v>2.824231</v>
       </c>
       <c r="N18">
-        <v>541.0724789999999</v>
+        <v>8.472693</v>
       </c>
       <c r="O18">
-        <v>0.9960408317692755</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P18">
-        <v>0.9960408317692757</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q18">
-        <v>381.755671490873</v>
+        <v>0.923427513146</v>
       </c>
       <c r="R18">
-        <v>3435.801043417856</v>
+        <v>8.310847618314</v>
       </c>
       <c r="S18">
-        <v>0.0374107236572478</v>
+        <v>9.201134118189904E-05</v>
       </c>
       <c r="T18">
-        <v>0.03741072365724781</v>
+        <v>9.201134118189904E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H19">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I19">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J19">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07065566666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N19">
-        <v>0.211967</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O19">
-        <v>0.000390202413136666</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P19">
-        <v>0.0003902024131366661</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q19">
-        <v>0.1495540940623334</v>
+        <v>58.970768056238</v>
       </c>
       <c r="R19">
-        <v>1.345986846561</v>
+        <v>530.7369125061419</v>
       </c>
       <c r="S19">
-        <v>1.465577934422321E-05</v>
+        <v>0.005875912707967219</v>
       </c>
       <c r="T19">
-        <v>1.465577934422321E-05</v>
+        <v>0.005875912707967219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H20">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I20">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J20">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.240756</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N20">
-        <v>0.722268</v>
+        <v>1.453856</v>
       </c>
       <c r="O20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q20">
-        <v>0.5095988357160001</v>
+        <v>0.1584538269653334</v>
       </c>
       <c r="R20">
-        <v>4.586389521444</v>
+        <v>1.426084442688</v>
       </c>
       <c r="S20">
-        <v>4.993890763842206E-05</v>
+        <v>1.578851499108383E-05</v>
       </c>
       <c r="T20">
-        <v>4.993890763842206E-05</v>
+        <v>1.578851499108383E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H21">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I21">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J21">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.06577766666666666</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N21">
-        <v>0.197333</v>
+        <v>0.235879</v>
       </c>
       <c r="O21">
-        <v>0.000363263209799156</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P21">
-        <v>0.0003632632097991561</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q21">
-        <v>0.1392290217043334</v>
+        <v>0.02570813770466667</v>
       </c>
       <c r="R21">
-        <v>1.253061195339</v>
+        <v>0.231373239342</v>
       </c>
       <c r="S21">
-        <v>1.364395828281571E-05</v>
+        <v>2.561587342612929E-06</v>
       </c>
       <c r="T21">
-        <v>1.364395828281572E-05</v>
+        <v>2.561587342612929E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H22">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I22">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J22">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N22">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O22">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P22">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q22">
-        <v>0.1595076995368889</v>
+        <v>5.223717427216999</v>
       </c>
       <c r="R22">
-        <v>1.435569295832</v>
+        <v>47.013456844953</v>
       </c>
       <c r="S22">
-        <v>1.563119794729894E-05</v>
+        <v>0.0005204969958020979</v>
       </c>
       <c r="T22">
-        <v>1.563119794729895E-05</v>
+        <v>0.000520496995802098</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H23">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I23">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J23">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O23">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P23">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q23">
-        <v>84.68403523742633</v>
+        <v>333.590481555251</v>
       </c>
       <c r="R23">
-        <v>762.1563171368369</v>
+        <v>3002.314333997259</v>
       </c>
       <c r="S23">
-        <v>0.008298739945566819</v>
+        <v>0.03323932542235316</v>
       </c>
       <c r="T23">
-        <v>0.00829873994556682</v>
+        <v>0.03323932542235317</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,61 +1907,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H24">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I24">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J24">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N24">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O24">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P24">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q24">
-        <v>0.03317526134455556</v>
+        <v>0.8963540781973334</v>
       </c>
       <c r="R24">
-        <v>0.2985773521010001</v>
+        <v>8.067186703776001</v>
       </c>
       <c r="S24">
-        <v>3.251059845610743E-06</v>
+        <v>8.931371410823629E-05</v>
       </c>
       <c r="T24">
-        <v>3.251059845610744E-06</v>
+        <v>8.931371410823632E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H25">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I25">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J25">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,400 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N25">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q25">
-        <v>0.113043207956</v>
+        <v>0.1454278165176667</v>
       </c>
       <c r="R25">
-        <v>1.017388871604</v>
+        <v>1.308850348659</v>
       </c>
       <c r="S25">
-        <v>1.107783991172956E-05</v>
+        <v>1.449058886859267E-05</v>
       </c>
       <c r="T25">
-        <v>1.107783991172957E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.4695343333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.408603</v>
-      </c>
-      <c r="I26">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="J26">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.197333</v>
-      </c>
-      <c r="O26">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P26">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q26">
-        <v>0.03088487286655555</v>
-      </c>
-      <c r="R26">
-        <v>0.277963855799</v>
-      </c>
-      <c r="S26">
-        <v>3.026609767151985E-06</v>
-      </c>
-      <c r="T26">
-        <v>3.026609767151986E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H27">
-        <v>31.55363</v>
-      </c>
-      <c r="I27">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J27">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.3397146666666667</v>
-      </c>
-      <c r="N27">
-        <v>1.019144</v>
-      </c>
-      <c r="O27">
-        <v>0.001876105469878586</v>
-      </c>
-      <c r="P27">
-        <v>0.001876105469878587</v>
-      </c>
-      <c r="Q27">
-        <v>3.573076965857778</v>
-      </c>
-      <c r="R27">
-        <v>32.15769269272</v>
-      </c>
-      <c r="S27">
-        <v>0.0003501490742855371</v>
-      </c>
-      <c r="T27">
-        <v>0.0003501490742855372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H28">
-        <v>31.55363</v>
-      </c>
-      <c r="I28">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J28">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>180.357493</v>
-      </c>
-      <c r="N28">
-        <v>541.0724789999999</v>
-      </c>
-      <c r="O28">
-        <v>0.9960408317692755</v>
-      </c>
-      <c r="P28">
-        <v>0.9960408317692757</v>
-      </c>
-      <c r="Q28">
-        <v>1896.977867283197</v>
-      </c>
-      <c r="R28">
-        <v>17072.80080554877</v>
-      </c>
-      <c r="S28">
-        <v>0.1858972114276596</v>
-      </c>
-      <c r="T28">
-        <v>0.1858972114276596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H29">
-        <v>31.55363</v>
-      </c>
-      <c r="I29">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J29">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.07065566666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.211967</v>
-      </c>
-      <c r="O29">
-        <v>0.000390202413136666</v>
-      </c>
-      <c r="P29">
-        <v>0.0003902024131366661</v>
-      </c>
-      <c r="Q29">
-        <v>0.7431475878011112</v>
-      </c>
-      <c r="R29">
-        <v>6.688328290210001</v>
-      </c>
-      <c r="S29">
-        <v>7.28258703667808E-05</v>
-      </c>
-      <c r="T29">
-        <v>7.282587036678081E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H30">
-        <v>31.55363</v>
-      </c>
-      <c r="I30">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J30">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.240756</v>
-      </c>
-      <c r="N30">
-        <v>0.722268</v>
-      </c>
-      <c r="O30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="P30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="Q30">
-        <v>2.53224191476</v>
-      </c>
-      <c r="R30">
-        <v>22.79017723284</v>
-      </c>
-      <c r="S30">
-        <v>0.0002481508713057883</v>
-      </c>
-      <c r="T30">
-        <v>0.0002481508713057884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H31">
-        <v>31.55363</v>
-      </c>
-      <c r="I31">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J31">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.197333</v>
-      </c>
-      <c r="O31">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P31">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q31">
-        <v>0.6918413854211112</v>
-      </c>
-      <c r="R31">
-        <v>6.226572468790001</v>
-      </c>
-      <c r="S31">
-        <v>6.779804156820614E-05</v>
-      </c>
-      <c r="T31">
-        <v>6.779804156820617E-05</v>
+        <v>1.449058886859268E-05</v>
       </c>
     </row>
   </sheetData>
